--- a/uploads/updatestatus.xlsx
+++ b/uploads/updatestatus.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackzro/Desktop/sekolah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401882C-9D67-534B-B836-C94095402A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA4E6A9-3284-5F41-A505-374E59E2EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{26ABDD3E-DD43-DD45-A5DD-954A12863990}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{26ABDD3E-DD43-DD45-A5DD-954A12863990}"/>
   </bookViews>
   <sheets>
     <sheet name="ujian" sheetId="1" r:id="rId1"/>
-    <sheet name="smpsma" sheetId="2" r:id="rId2"/>
-    <sheet name="tksd" sheetId="3" r:id="rId3"/>
+    <sheet name="true" sheetId="4" r:id="rId2"/>
+    <sheet name="smpsma" sheetId="2" r:id="rId3"/>
+    <sheet name="tksd" sheetId="3" r:id="rId4"/>
+    <sheet name="false" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="458">
   <si>
     <t>30661</t>
   </si>
@@ -2632,6 +2634,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6015709-2748-6241-A50D-B8AA67262C71}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>30695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>30704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>30706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>30707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>30708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>30713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>30714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>30715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>30716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>30717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B416C3-38AC-2344-8C61-6D3241E22E63}">
   <dimension ref="A1:A132"/>
   <sheetViews>
@@ -3304,11 +3454,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2567503B-1A66-0542-A6AE-CFA6E1239C76}">
   <dimension ref="A1:A214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4385,4 +4535,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F3059A-EFED-D541-A71B-70569E515B27}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>